--- a/inst/extdata/prevalence_tests/correct_01.xlsx
+++ b/inst/extdata/prevalence_tests/correct_01.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rverity/Dropbox/Bob/Work/My Programs/Mapping/STAVE/inst/extdata/prevalence_tests/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E6EFD39-AB8D-7945-8392-70427E273A65}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0778DBE5-6061-A140-B8CE-9CDE320E6C5A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1380" yWindow="1120" windowWidth="31520" windowHeight="18700" activeTab="3" xr2:uid="{A4E9C168-401F-F34B-85A4-C504E7A73195}"/>
   </bookViews>
@@ -162,10 +162,10 @@
     <t>crt:72:A</t>
   </si>
   <si>
-    <t>crt:72_73_74:C|A_V|A_I</t>
-  </si>
-  <si>
     <t>crt:72_73_74:C|A|D_V|A|D_I</t>
+  </si>
+  <si>
+    <t>crt:72_73_74:C/A_V/A_I</t>
   </si>
 </sst>
 </file>
@@ -732,7 +732,7 @@
   <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.1640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -787,7 +787,7 @@
         <v>23</v>
       </c>
       <c r="B4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C4">
         <v>1</v>
@@ -801,7 +801,7 @@
         <v>23</v>
       </c>
       <c r="B5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C5">
         <v>1</v>

--- a/inst/extdata/prevalence_tests/correct_01.xlsx
+++ b/inst/extdata/prevalence_tests/correct_01.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10811"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11207"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rverity/Dropbox/Bob/Work/My Programs/Mapping/STAVE/inst/extdata/prevalence_tests/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0778DBE5-6061-A140-B8CE-9CDE320E6C5A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA12FECB-716F-5C4E-A8F9-A26457C85650}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1380" yWindow="1120" windowWidth="31520" windowHeight="18700" activeTab="3" xr2:uid="{A4E9C168-401F-F34B-85A4-C504E7A73195}"/>
+    <workbookView xWindow="1380" yWindow="1120" windowWidth="31520" windowHeight="18700" activeTab="4" xr2:uid="{A4E9C168-401F-F34B-85A4-C504E7A73195}"/>
   </bookViews>
   <sheets>
     <sheet name="Notes" sheetId="1" r:id="rId1"/>
@@ -45,9 +45,6 @@
     <t>Notes</t>
   </si>
   <si>
-    <t>study_ID</t>
-  </si>
-  <si>
     <t>study_name</t>
   </si>
   <si>
@@ -78,9 +75,6 @@
     <t>first study</t>
   </si>
   <si>
-    <t>survey_ID</t>
-  </si>
-  <si>
     <t>study_key</t>
   </si>
   <si>
@@ -90,12 +84,6 @@
     <t>site_name</t>
   </si>
   <si>
-    <t>lat</t>
-  </si>
-  <si>
-    <t>lon</t>
-  </si>
-  <si>
     <t>spatial_notes</t>
   </si>
   <si>
@@ -166,6 +154,18 @@
   </si>
   <si>
     <t>crt:72_73_74:C/A_V/A_I</t>
+  </si>
+  <si>
+    <t>study_id</t>
+  </si>
+  <si>
+    <t>survey_id</t>
+  </si>
+  <si>
+    <t>latitude</t>
+  </si>
+  <si>
+    <t>longitude</t>
   </si>
 </sst>
 </file>
@@ -570,7 +570,7 @@
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
     </row>
   </sheetData>
@@ -583,7 +583,7 @@
   <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -593,42 +593,42 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>4</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>5</v>
-      </c>
-      <c r="F1" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" t="s">
         <v>7</v>
       </c>
-      <c r="B2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>8</v>
-      </c>
-      <c r="D2" t="s">
-        <v>9</v>
       </c>
       <c r="E2">
         <v>2024</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -644,7 +644,7 @@
   <dimension ref="A1:K2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -654,51 +654,51 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1" t="s">
         <v>13</v>
       </c>
-      <c r="B1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C1" t="s">
+      <c r="E1" t="s">
+        <v>40</v>
+      </c>
+      <c r="F1" t="s">
+        <v>41</v>
+      </c>
+      <c r="G1" t="s">
         <v>14</v>
       </c>
-      <c r="D1" t="s">
+      <c r="H1" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="E1" t="s">
+      <c r="I1" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F1" t="s">
+      <c r="J1" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="G1" t="s">
+      <c r="K1" t="s">
         <v>18</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="K1" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="C2" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="E2">
         <v>0</v>
@@ -707,19 +707,19 @@
         <v>0</v>
       </c>
       <c r="G2" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="K2" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -731,7 +731,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{14E51D5F-A46A-0B42-A5D0-47D275C37629}">
   <dimension ref="A1:D7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
@@ -742,24 +742,24 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B1" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C1" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="D1" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="B2" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="C2">
         <v>1</v>
@@ -770,10 +770,10 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="B3" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="C3">
         <v>1</v>
@@ -784,10 +784,10 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="B4" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="C4">
         <v>1</v>
@@ -798,10 +798,10 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="B5" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="C5">
         <v>1</v>
@@ -812,10 +812,10 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="B6" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="C6">
         <v>1</v>
@@ -826,10 +826,10 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="B7" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="C7">
         <v>1</v>
@@ -848,26 +848,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1FD02AD-7538-844E-8161-FED3057DF0A4}">
   <dimension ref="A1:C3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.1640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="B1" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C1" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="B2">
         <v>3</v>
@@ -878,7 +878,7 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="B3">
         <v>0</v>

--- a/inst/extdata/prevalence_tests/correct_01.xlsx
+++ b/inst/extdata/prevalence_tests/correct_01.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11207"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10402"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rverity/Dropbox/Bob/Work/My Programs/Mapping/STAVE/inst/extdata/prevalence_tests/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA12FECB-716F-5C4E-A8F9-A26457C85650}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF11337F-B5B3-6D45-AA83-F5AC9E7DF56F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1380" yWindow="1120" windowWidth="31520" windowHeight="18700" activeTab="4" xr2:uid="{A4E9C168-401F-F34B-85A4-C504E7A73195}"/>
+    <workbookView xWindow="1300" yWindow="1940" windowWidth="31520" windowHeight="18700" activeTab="5" xr2:uid="{A4E9C168-401F-F34B-85A4-C504E7A73195}"/>
   </bookViews>
   <sheets>
     <sheet name="Notes" sheetId="1" r:id="rId1"/>
@@ -18,8 +18,9 @@
     <sheet name="surveys" sheetId="3" r:id="rId3"/>
     <sheet name="counts" sheetId="4" r:id="rId4"/>
     <sheet name="prevalence" sheetId="5" r:id="rId5"/>
+    <sheet name="prevalence2" sheetId="6" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -40,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="47">
   <si>
     <t>Notes</t>
   </si>
@@ -63,109 +64,124 @@
     <t>foo</t>
   </si>
   <si>
+    <t>https://doi.org/10.1093%2Fgenetics%2F16.2.97</t>
+  </si>
+  <si>
+    <t>study_key</t>
+  </si>
+  <si>
+    <t>country_name</t>
+  </si>
+  <si>
+    <t>site_name</t>
+  </si>
+  <si>
+    <t>spatial_notes</t>
+  </si>
+  <si>
+    <t>collection_start</t>
+  </si>
+  <si>
+    <t>collection_end</t>
+  </si>
+  <si>
+    <t>collection_day</t>
+  </si>
+  <si>
+    <t>time_notes</t>
+  </si>
+  <si>
+    <t>S01</t>
+  </si>
+  <si>
+    <t>example data</t>
+  </si>
+  <si>
+    <t>survey_key</t>
+  </si>
+  <si>
+    <t>variant_string</t>
+  </si>
+  <si>
+    <t>variant_num</t>
+  </si>
+  <si>
+    <t>total_num</t>
+  </si>
+  <si>
+    <t>2020-01-01</t>
+  </si>
+  <si>
+    <t>crt:72_73_74_75_76:CVIET</t>
+  </si>
+  <si>
+    <t>crt:72_73_74:CVI</t>
+  </si>
+  <si>
+    <t>crt:74_75_76:IET</t>
+  </si>
+  <si>
+    <t>crt:72:C</t>
+  </si>
+  <si>
+    <t>crt:72:D</t>
+  </si>
+  <si>
+    <t>target_variant</t>
+  </si>
+  <si>
+    <t>crt:72:A</t>
+  </si>
+  <si>
+    <t>crt:72_73_74:C|A|D_V|A|D_I</t>
+  </si>
+  <si>
+    <t>crt:72_73_74:C/A_V/A_I</t>
+  </si>
+  <si>
+    <t>study_id</t>
+  </si>
+  <si>
+    <t>survey_id</t>
+  </si>
+  <si>
+    <t>latitude</t>
+  </si>
+  <si>
+    <t>longitude</t>
+  </si>
+  <si>
     <t>other</t>
   </si>
   <si>
-    <t>Bloggs_etal</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.1093%2Fgenetics%2F16.2.97</t>
-  </si>
-  <si>
-    <t>first study</t>
-  </si>
-  <si>
-    <t>study_key</t>
-  </si>
-  <si>
-    <t>country_name</t>
-  </si>
-  <si>
-    <t>site_name</t>
-  </si>
-  <si>
-    <t>spatial_notes</t>
-  </si>
-  <si>
-    <t>collection_start</t>
-  </si>
-  <si>
-    <t>collection_end</t>
-  </si>
-  <si>
-    <t>collection_day</t>
-  </si>
-  <si>
-    <t>time_notes</t>
-  </si>
-  <si>
-    <t>S01</t>
-  </si>
-  <si>
-    <t>example data</t>
-  </si>
-  <si>
-    <t>survey_key</t>
-  </si>
-  <si>
-    <t>variant_string</t>
-  </si>
-  <si>
-    <t>variant_num</t>
-  </si>
-  <si>
-    <t>total_num</t>
-  </si>
-  <si>
-    <t>Gambia</t>
-  </si>
-  <si>
-    <t>example site</t>
-  </si>
-  <si>
-    <t>2020-01-01</t>
-  </si>
-  <si>
-    <t>crt:72_73_74_75_76:CVIET</t>
-  </si>
-  <si>
-    <t>crt:72_73_74:CVI</t>
-  </si>
-  <si>
-    <t>crt:74_75_76:IET</t>
-  </si>
-  <si>
-    <t>crt:72:C</t>
-  </si>
-  <si>
-    <t>This is an example of input data that should pass tests, and correct prevalence values are stored in the extra prevalence sheet</t>
-  </si>
-  <si>
-    <t>crt:72:D</t>
-  </si>
-  <si>
-    <t>target_variant</t>
-  </si>
-  <si>
-    <t>crt:72:A</t>
-  </si>
-  <si>
-    <t>crt:72_73_74:C|A|D_V|A|D_I</t>
-  </si>
-  <si>
-    <t>crt:72_73_74:C/A_V/A_I</t>
-  </si>
-  <si>
-    <t>study_id</t>
-  </si>
-  <si>
-    <t>survey_id</t>
-  </si>
-  <si>
-    <t>latitude</t>
-  </si>
-  <si>
-    <t>longitude</t>
+    <t>numerator</t>
+  </si>
+  <si>
+    <t>denominator</t>
+  </si>
+  <si>
+    <t>keep_ambiguous</t>
+  </si>
+  <si>
+    <t>prev_from_min</t>
+  </si>
+  <si>
+    <t>crt:72_73:CV</t>
+  </si>
+  <si>
+    <t>crt:74_75:IE</t>
+  </si>
+  <si>
+    <t>crt:72_73_74:AAI</t>
+  </si>
+  <si>
+    <t>This is an example of input data that should pass tests, and correct prevalence values are stored in the extra prevalence sheets</t>
+  </si>
+  <si>
+    <t>numerator_min</t>
+  </si>
+  <si>
+    <t>numerator_max</t>
   </si>
 </sst>
 </file>
@@ -558,7 +574,7 @@
   <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -570,7 +586,7 @@
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>32</v>
+        <v>44</v>
       </c>
     </row>
   </sheetData>
@@ -583,7 +599,7 @@
   <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -593,7 +609,7 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
@@ -615,20 +631,11 @@
       <c r="A2" t="s">
         <v>6</v>
       </c>
-      <c r="B2" t="s">
-        <v>10</v>
-      </c>
       <c r="C2" t="s">
+        <v>36</v>
+      </c>
+      <c r="F2" s="1" t="s">
         <v>7</v>
-      </c>
-      <c r="D2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E2">
-        <v>2024</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -644,7 +651,7 @@
   <dimension ref="A1:K2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="J3" sqref="J3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -654,37 +661,37 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F1" t="s">
+        <v>35</v>
+      </c>
+      <c r="G1" t="s">
         <v>11</v>
       </c>
-      <c r="B1" t="s">
-        <v>39</v>
-      </c>
-      <c r="C1" t="s">
+      <c r="H1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D1" t="s">
+      <c r="I1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="E1" t="s">
-        <v>40</v>
-      </c>
-      <c r="F1" t="s">
-        <v>41</v>
-      </c>
-      <c r="G1" t="s">
+      <c r="J1" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="K1" t="s">
         <v>15</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="K1" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.2">
@@ -692,13 +699,7 @@
         <v>6</v>
       </c>
       <c r="B2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D2" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="E2">
         <v>0</v>
@@ -707,19 +708,13 @@
         <v>0</v>
       </c>
       <c r="G2" t="s">
-        <v>20</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="K2" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>
@@ -729,113 +724,134 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{14E51D5F-A46A-0B42-A5D0-47D275C37629}">
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="C5" activeCellId="1" sqref="C4 C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.1640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="25.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="25.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E1" t="s">
         <v>21</v>
       </c>
-      <c r="B1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C1" t="s">
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2" t="s">
         <v>23</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D2">
+        <v>1</v>
+      </c>
+      <c r="E2">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>19</v>
-      </c>
-      <c r="B2" t="s">
-        <v>28</v>
-      </c>
-      <c r="C2">
-        <v>1</v>
-      </c>
-      <c r="D2">
+      <c r="D3">
+        <v>1</v>
+      </c>
+      <c r="E3">
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>19</v>
-      </c>
-      <c r="B3" t="s">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" t="s">
+        <v>31</v>
+      </c>
+      <c r="D4">
+        <v>1</v>
+      </c>
+      <c r="E4">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" t="s">
+        <v>30</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+      <c r="E5">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6">
+        <v>1</v>
+      </c>
+      <c r="E6">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7" t="s">
         <v>29</v>
       </c>
-      <c r="C3">
-        <v>1</v>
-      </c>
-      <c r="D3">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>19</v>
-      </c>
-      <c r="B4" t="s">
-        <v>37</v>
-      </c>
-      <c r="C4">
-        <v>1</v>
-      </c>
-      <c r="D4">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>19</v>
-      </c>
-      <c r="B5" t="s">
-        <v>36</v>
-      </c>
-      <c r="C5">
-        <v>1</v>
-      </c>
-      <c r="D5">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>19</v>
-      </c>
-      <c r="B6" t="s">
-        <v>30</v>
-      </c>
-      <c r="C6">
-        <v>1</v>
-      </c>
-      <c r="D6">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>19</v>
-      </c>
-      <c r="B7" t="s">
-        <v>35</v>
-      </c>
-      <c r="C7">
-        <v>1</v>
-      </c>
       <c r="D7">
-        <v>10</v>
+        <v>1</v>
+      </c>
+      <c r="E7">
+        <v>25</v>
       </c>
     </row>
   </sheetData>
@@ -846,45 +862,217 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1FD02AD-7538-844E-8161-FED3057DF0A4}">
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:E7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.1640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="14.6640625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="B1" t="s">
-        <v>23</v>
+        <v>39</v>
       </c>
       <c r="C1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+        <v>40</v>
+      </c>
+      <c r="D1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>31</v>
-      </c>
-      <c r="B2">
+        <v>26</v>
+      </c>
+      <c r="B2" t="b">
+        <v>0</v>
+      </c>
+      <c r="C2" t="b">
+        <v>1</v>
+      </c>
+      <c r="D2">
+        <v>4</v>
+      </c>
+      <c r="E2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B3" t="b">
+        <v>0</v>
+      </c>
+      <c r="C3" t="b">
+        <v>1</v>
+      </c>
+      <c r="D3">
         <v>3</v>
       </c>
-      <c r="C2">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E3">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B4" t="b">
+        <v>0</v>
+      </c>
+      <c r="C4" t="b">
+        <v>1</v>
+      </c>
+      <c r="D4">
+        <v>1</v>
+      </c>
+      <c r="E4">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>41</v>
+      </c>
+      <c r="B5" t="b">
+        <v>0</v>
+      </c>
+      <c r="C5" t="b">
+        <v>1</v>
+      </c>
+      <c r="D5">
+        <v>3</v>
+      </c>
+      <c r="E5">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>42</v>
+      </c>
+      <c r="B6" t="b">
+        <v>0</v>
+      </c>
+      <c r="C6" t="b">
+        <v>1</v>
+      </c>
+      <c r="D6">
+        <v>2</v>
+      </c>
+      <c r="E6">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>43</v>
+      </c>
+      <c r="B7" t="b">
+        <v>0</v>
+      </c>
+      <c r="C7" t="b">
+        <v>1</v>
+      </c>
+      <c r="D7">
+        <v>1</v>
+      </c>
+      <c r="E7">
+        <v>25</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{79BEE5FF-9070-0743-AA61-0AF655BB869F}">
+  <dimension ref="A1:F3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G11" sqref="G11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.83203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E1" t="s">
+        <v>46</v>
+      </c>
+      <c r="F1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B2" t="b">
+        <v>1</v>
+      </c>
+      <c r="C2" t="b">
+        <v>1</v>
+      </c>
+      <c r="D2">
+        <v>3</v>
+      </c>
+      <c r="E2">
+        <v>4</v>
+      </c>
+      <c r="F2">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>33</v>
-      </c>
-      <c r="B3">
-        <v>0</v>
-      </c>
-      <c r="C3">
-        <v>30</v>
+        <v>43</v>
+      </c>
+      <c r="B3" t="b">
+        <v>1</v>
+      </c>
+      <c r="C3" t="b">
+        <v>1</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+      <c r="E3">
+        <v>2</v>
+      </c>
+      <c r="F3">
+        <v>25</v>
       </c>
     </row>
   </sheetData>

--- a/inst/extdata/prevalence_tests/correct_01.xlsx
+++ b/inst/extdata/prevalence_tests/correct_01.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10402"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11102"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rverity/Dropbox/Bob/Work/My Programs/Mapping/STAVE/inst/extdata/prevalence_tests/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF11337F-B5B3-6D45-AA83-F5AC9E7DF56F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{785EE44E-D2FB-B144-96BC-FE6158F25CFB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1300" yWindow="1940" windowWidth="31520" windowHeight="18700" activeTab="5" xr2:uid="{A4E9C168-401F-F34B-85A4-C504E7A73195}"/>
+    <workbookView xWindow="1300" yWindow="1940" windowWidth="31520" windowHeight="18700" activeTab="1" xr2:uid="{A4E9C168-401F-F34B-85A4-C504E7A73195}"/>
   </bookViews>
   <sheets>
     <sheet name="Notes" sheetId="1" r:id="rId1"/>
@@ -41,44 +41,23 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="48">
   <si>
     <t>Notes</t>
   </si>
   <si>
-    <t>study_name</t>
-  </si>
-  <si>
-    <t>study_type</t>
-  </si>
-  <si>
-    <t>authors</t>
-  </si>
-  <si>
-    <t>publication_year</t>
-  </si>
-  <si>
-    <t>url</t>
-  </si>
-  <si>
     <t>foo</t>
   </si>
   <si>
     <t>https://doi.org/10.1093%2Fgenetics%2F16.2.97</t>
   </si>
   <si>
-    <t>study_key</t>
-  </si>
-  <si>
     <t>country_name</t>
   </si>
   <si>
     <t>site_name</t>
   </si>
   <si>
-    <t>spatial_notes</t>
-  </si>
-  <si>
     <t>collection_start</t>
   </si>
   <si>
@@ -97,9 +76,6 @@
     <t>example data</t>
   </si>
   <si>
-    <t>survey_key</t>
-  </si>
-  <si>
     <t>variant_string</t>
   </si>
   <si>
@@ -112,15 +88,6 @@
     <t>2020-01-01</t>
   </si>
   <si>
-    <t>crt:72_73_74_75_76:CVIET</t>
-  </si>
-  <si>
-    <t>crt:72_73_74:CVI</t>
-  </si>
-  <si>
-    <t>crt:74_75_76:IET</t>
-  </si>
-  <si>
     <t>crt:72:C</t>
   </si>
   <si>
@@ -133,12 +100,6 @@
     <t>crt:72:A</t>
   </si>
   <si>
-    <t>crt:72_73_74:C|A|D_V|A|D_I</t>
-  </si>
-  <si>
-    <t>crt:72_73_74:C/A_V/A_I</t>
-  </si>
-  <si>
     <t>study_id</t>
   </si>
   <si>
@@ -151,9 +112,6 @@
     <t>longitude</t>
   </si>
   <si>
-    <t>other</t>
-  </si>
-  <si>
     <t>numerator</t>
   </si>
   <si>
@@ -182,6 +140,51 @@
   </si>
   <si>
     <t>numerator_max</t>
+  </si>
+  <si>
+    <t>study_label</t>
+  </si>
+  <si>
+    <t>description</t>
+  </si>
+  <si>
+    <t>access_level</t>
+  </si>
+  <si>
+    <t>contributors</t>
+  </si>
+  <si>
+    <t>reference</t>
+  </si>
+  <si>
+    <t>reference_year</t>
+  </si>
+  <si>
+    <t>location_method</t>
+  </si>
+  <si>
+    <t>location_notes</t>
+  </si>
+  <si>
+    <t>time_method</t>
+  </si>
+  <si>
+    <t>crt:72-76:CVIET</t>
+  </si>
+  <si>
+    <t>crt:72-74:CVI</t>
+  </si>
+  <si>
+    <t>crt:72-74:C/A_V/A_I</t>
+  </si>
+  <si>
+    <t>crt:72-74:C|A|D_V|A|D_I</t>
+  </si>
+  <si>
+    <t>crt:74-76:IET</t>
+  </si>
+  <si>
+    <t>public</t>
   </si>
 </sst>
 </file>
@@ -586,7 +589,7 @@
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>44</v>
+        <v>30</v>
       </c>
     </row>
   </sheetData>
@@ -596,10 +599,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{913D86B1-4503-0D4D-8A9D-3BCCCF42F647}">
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:G2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -607,40 +610,43 @@
     <col min="5" max="5" width="20.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>32</v>
+        <v>19</v>
       </c>
       <c r="B1" t="s">
-        <v>1</v>
+        <v>33</v>
       </c>
       <c r="C1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E1" t="s">
+        <v>36</v>
+      </c>
+      <c r="F1" t="s">
+        <v>37</v>
+      </c>
+      <c r="G1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" t="s">
+        <v>47</v>
+      </c>
+      <c r="F2" s="1" t="s">
         <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C2" t="s">
-        <v>36</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>7</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="F2" r:id="rId1" xr:uid="{7B381643-2B72-2A44-B9DF-AEEC0C994AA3}"/>
+    <hyperlink ref="F2" r:id="rId1" xr:uid="{C3C8313A-7316-0045-B3A2-8A739B7829A7}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -648,10 +654,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FCF84CB1-9532-2C43-A7F8-683871878F9F}">
-  <dimension ref="A1:K2"/>
+  <dimension ref="A1:M2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J3" sqref="J3"/>
+      <selection sqref="A1:M2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -659,47 +665,53 @@
     <col min="8" max="10" width="14.83203125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G1" t="s">
+        <v>39</v>
+      </c>
+      <c r="H1" t="s">
+        <v>40</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="M1" t="s">
         <v>8</v>
       </c>
-      <c r="B1" t="s">
-        <v>33</v>
-      </c>
-      <c r="C1" t="s">
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
         <v>9</v>
-      </c>
-      <c r="D1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E1" t="s">
-        <v>34</v>
-      </c>
-      <c r="F1" t="s">
-        <v>35</v>
-      </c>
-      <c r="G1" t="s">
-        <v>11</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="K1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B2" t="s">
-        <v>16</v>
       </c>
       <c r="E2">
         <v>0</v>
@@ -707,14 +719,15 @@
       <c r="F2">
         <v>0</v>
       </c>
-      <c r="G2" t="s">
-        <v>17</v>
-      </c>
-      <c r="J2" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="K2" t="s">
-        <v>17</v>
+      <c r="H2" t="s">
+        <v>10</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="L2" s="2"/>
+      <c r="M2" t="s">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -727,7 +740,7 @@
   <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C5" activeCellId="1" sqref="C4 C5"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.1640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -737,30 +750,30 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="B1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C1" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="D1" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="E1" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>42</v>
       </c>
       <c r="D2">
         <v>1</v>
@@ -771,13 +784,13 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>43</v>
       </c>
       <c r="D3">
         <v>1</v>
@@ -788,13 +801,13 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="C4" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="D4">
         <v>1</v>
@@ -805,13 +818,13 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="B5" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="C5" t="s">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="D5">
         <v>1</v>
@@ -822,13 +835,13 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="B6" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="C6" t="s">
-        <v>25</v>
+        <v>46</v>
       </c>
       <c r="D6">
         <v>1</v>
@@ -839,13 +852,13 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="B7" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="C7" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="D7">
         <v>1</v>
@@ -865,7 +878,7 @@
   <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.1640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -875,24 +888,24 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="B1" t="s">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="C1" t="s">
-        <v>40</v>
+        <v>26</v>
       </c>
       <c r="D1" t="s">
-        <v>37</v>
+        <v>23</v>
       </c>
       <c r="E1" t="s">
-        <v>38</v>
+        <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="B2" t="b">
         <v>0</v>
@@ -909,7 +922,7 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="B3" t="b">
         <v>0</v>
@@ -926,7 +939,7 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="B4" t="b">
         <v>0</v>
@@ -943,7 +956,7 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>41</v>
+        <v>27</v>
       </c>
       <c r="B5" t="b">
         <v>0</v>
@@ -960,7 +973,7 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>42</v>
+        <v>28</v>
       </c>
       <c r="B6" t="b">
         <v>0</v>
@@ -977,7 +990,7 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="B7" t="b">
         <v>0</v>
@@ -1001,7 +1014,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{79BEE5FF-9070-0743-AA61-0AF655BB869F}">
   <dimension ref="A1:F3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
@@ -1017,27 +1030,27 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="B1" t="s">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="C1" t="s">
-        <v>40</v>
+        <v>26</v>
       </c>
       <c r="D1" t="s">
-        <v>45</v>
+        <v>31</v>
       </c>
       <c r="E1" t="s">
-        <v>46</v>
+        <v>32</v>
       </c>
       <c r="F1" t="s">
-        <v>38</v>
+        <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>41</v>
+        <v>27</v>
       </c>
       <c r="B2" t="b">
         <v>1</v>
@@ -1057,7 +1070,7 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="B3" t="b">
         <v>1</v>

--- a/inst/extdata/prevalence_tests/correct_01.xlsx
+++ b/inst/extdata/prevalence_tests/correct_01.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11102"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11130"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rverity/Dropbox/Bob/Work/My Programs/Mapping/STAVE/inst/extdata/prevalence_tests/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{785EE44E-D2FB-B144-96BC-FE6158F25CFB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE1920B1-77C2-E14C-B444-BF5E70D1B02B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1300" yWindow="1940" windowWidth="31520" windowHeight="18700" activeTab="1" xr2:uid="{A4E9C168-401F-F34B-85A4-C504E7A73195}"/>
+    <workbookView xWindow="1300" yWindow="1840" windowWidth="31520" windowHeight="18700" activeTab="3" xr2:uid="{A4E9C168-401F-F34B-85A4-C504E7A73195}"/>
   </bookViews>
   <sheets>
     <sheet name="Notes" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="50">
   <si>
     <t>Notes</t>
   </si>
@@ -185,6 +185,12 @@
   </si>
   <si>
     <t>public</t>
+  </si>
+  <si>
+    <t>PMID</t>
+  </si>
+  <si>
+    <t>notes</t>
   </si>
 </sst>
 </file>
@@ -599,10 +605,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{913D86B1-4503-0D4D-8A9D-3BCCCF42F647}">
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -610,7 +616,7 @@
     <col min="5" max="5" width="20.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>19</v>
       </c>
@@ -632,8 +638,11 @@
       <c r="G1" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -737,10 +746,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{14E51D5F-A46A-0B42-A5D0-47D275C37629}">
-  <dimension ref="A1:E7"/>
+  <dimension ref="A1:F7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.1640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -748,7 +757,7 @@
     <col min="3" max="3" width="25.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>19</v>
       </c>
@@ -764,8 +773,11 @@
       <c r="E1" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -782,7 +794,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -799,7 +811,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>1</v>
       </c>
@@ -816,7 +828,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>1</v>
       </c>
@@ -833,7 +845,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>1</v>
       </c>
@@ -850,7 +862,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>1</v>
       </c>
